--- a/meeting/BF_DTO_Details.xlsx
+++ b/meeting/BF_DTO_Details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>D
 T
@@ -36,22 +36,40 @@
     <t xml:space="preserve"> String</t>
   </si>
   <si>
-    <t xml:space="preserve"> id </t>
+    <t xml:space="preserve"> userid </t>
   </si>
   <si>
     <t xml:space="preserve"> 유저 아이디</t>
   </si>
   <si>
+    <t xml:space="preserve"> pw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유저 비밀번호</t>
+  </si>
+  <si>
     <t xml:space="preserve"> name</t>
   </si>
   <si>
     <t xml:space="preserve"> 유저 닉네임</t>
   </si>
   <si>
-    <t xml:space="preserve"> pw</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 유저 비밀번호</t>
+    <t xml:space="preserve"> photoURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유저 프로필 사진 URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유저 프로필 정보</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유저 소속 그룹</t>
   </si>
   <si>
     <t xml:space="preserve"> int</t>
@@ -72,9 +90,6 @@
     <t xml:space="preserve"> 관리자 여부</t>
   </si>
   <si>
-    <t>bDeactivated</t>
-  </si>
-  <si>
     <t xml:space="preserve"> bDeactivated</t>
   </si>
   <si>
@@ -102,6 +117,12 @@
     <t xml:space="preserve"> 질문 고유 아이디</t>
   </si>
   <si>
+    <t xml:space="preserve"> type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 질문 타입</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 질문 제목</t>
   </si>
   <si>
@@ -123,7 +144,7 @@
     <t xml:space="preserve"> 질문 작성자</t>
   </si>
   <si>
-    <t xml:space="preserve"> String[]</t>
+    <t xml:space="preserve"> int[]</t>
   </si>
   <si>
     <t xml:space="preserve"> tag</t>
@@ -156,15 +177,6 @@
     <t xml:space="preserve"> 업 and 다운 합산 점수</t>
   </si>
   <si>
-    <t xml:space="preserve"> List&lt;Answer&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 해당 질문에 달린 답변 리스트</t>
-  </si>
-  <si>
     <t xml:space="preserve"> List&lt;Comment&gt;</t>
   </si>
   <si>
@@ -181,6 +193,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 답변 고유 아이디</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 답변이 속한 질문의 고유 아이디</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 답변 타입</t>
   </si>
   <si>
     <t xml:space="preserve"> 답변 작성자 고유 아이디</t>
@@ -329,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -371,10 +389,7 @@
     <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -471,77 +486,84 @@
     <row r="5">
       <c r="A5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="4"/>
@@ -549,59 +571,52 @@
     </row>
     <row r="13">
       <c r="A13" s="4"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="C16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -622,262 +637,340 @@
       <c r="A19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>40</v>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>43</v>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>46</v>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>49</v>
+      <c r="D23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>52</v>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="15" t="s">
         <v>55</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="C28" s="12"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="C29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>59</v>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>52</v>
+      <c r="C33" s="4"/>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
-      <c r="C36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>64</v>
+      <c r="C36" s="4"/>
+      <c r="D36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>65</v>
+      <c r="D37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>67</v>
+      <c r="C39" s="10"/>
+      <c r="D39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="17" t="s">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>68</v>
+      <c r="F44" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="A1:A46"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
